--- a/exel-files/strokenplanning.xlsx
+++ b/exel-files/strokenplanning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoahM\Documents\Vista Software Developer\Leerjaar 1\challenge2\exel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3816E7-E762-4A37-8919-63D9B3EA7056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C72B9-B95A-4E48-811A-66A99D94ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="-15570" windowWidth="13830" windowHeight="7170" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,8 +266,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +333,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -358,15 +371,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -384,16 +413,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
@@ -710,11 +741,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
   <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T63" sqref="T63"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -735,27 +766,27 @@
     </row>
     <row r="2" spans="1:18" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -939,7 +970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +1061,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1040,31 +1071,31 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
@@ -1073,11 +1104,11 @@
       <c r="C41" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
@@ -1086,11 +1117,11 @@
       <c r="C42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
@@ -1284,7 +1315,7 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
         <v>54</v>
       </c>
@@ -1298,35 +1329,35 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
       <c r="N60" s="4"/>
-      <c r="O60" s="14" t="s">
+      <c r="O60" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N61" s="4"/>
-      <c r="O61" s="14" t="s">
+      <c r="O61" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>

--- a/exel-files/strokenplanning.xlsx
+++ b/exel-files/strokenplanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoahM\Documents\Vista Software Developer\Leerjaar 1\challenge2\exel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C72B9-B95A-4E48-811A-66A99D94ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6B76F5-EAA7-4BB5-A772-C51725F3CEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -51,9 +51,6 @@
     <t>LeanBoard</t>
   </si>
   <si>
-    <t>Succesfactoren invullen</t>
-  </si>
-  <si>
     <t>Teamafspraken maken</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Week 3</t>
   </si>
   <si>
-    <t>Uitdagingen benoemen</t>
-  </si>
-  <si>
     <t>Taken</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
   </si>
   <si>
     <t>StandUp meeting</t>
-  </si>
-  <si>
-    <t>Trello board</t>
   </si>
   <si>
     <t>Projectfiles en -mappen vastleggen</t>
@@ -416,10 +407,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
@@ -741,18 +732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
   <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.69921875" customWidth="1"/>
     <col min="2" max="2" width="63.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.8984375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
@@ -766,82 +757,82 @@
     </row>
     <row r="2" spans="1:18" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="D2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
       <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -855,10 +846,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -866,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -876,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -884,30 +875,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="11"/>
@@ -929,10 +902,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -949,14 +922,9 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
@@ -964,23 +932,23 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="11"/>
@@ -990,18 +958,18 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -1019,7 +987,7 @@
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="11"/>
@@ -1027,24 +995,24 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="11"/>
@@ -1063,91 +1031,91 @@
     </row>
     <row r="38" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:20" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:20" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -1159,10 +1127,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C45" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -1176,14 +1144,14 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -1265,7 +1233,7 @@
     </row>
     <row r="55" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="11"/>
@@ -1275,11 +1243,11 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -1289,11 +1257,11 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -1303,11 +1271,11 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -1317,11 +1285,11 @@
     </row>
     <row r="59" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -1331,28 +1299,28 @@
     </row>
     <row r="60" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N60" s="4"/>
-      <c r="O60" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="O60" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N61" s="4"/>
-      <c r="O61" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="O61" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
@@ -1407,15 +1375,15 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
